--- a/Proyecto Final/project.xlsx
+++ b/Proyecto Final/project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Escritorio\CESDE\CESDE-BackendJava1\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4240D54-BCF3-4B9B-A894-33B7C9A76907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9540F-B853-40B8-A2C6-CCAB7A0505BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{903B5C85-DF2D-491B-95C5-12E3E68F1ACC}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{903B5C85-DF2D-491B-95C5-12E3E68F1ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>USUARIO</t>
   </si>
   <si>
-    <t>INMUEBLES</t>
-  </si>
-  <si>
     <t>USUARIO-INMUEBLES</t>
   </si>
   <si>
@@ -66,21 +63,12 @@
     <t>direccion</t>
   </si>
   <si>
-    <t>INMUEBLES-ESTADO</t>
-  </si>
-  <si>
-    <t>tipo_oferta</t>
-  </si>
-  <si>
     <t>precio</t>
   </si>
   <si>
     <t>disponibilidad</t>
   </si>
   <si>
-    <t>CITAS</t>
-  </si>
-  <si>
     <t>hora_inicio</t>
   </si>
   <si>
@@ -106,6 +94,45 @@
   </si>
   <si>
     <t>ubicacion</t>
+  </si>
+  <si>
+    <t>PROPIETARIO</t>
+  </si>
+  <si>
+    <t>id_propietario</t>
+  </si>
+  <si>
+    <t>OFERTA</t>
+  </si>
+  <si>
+    <t>id_oferta</t>
+  </si>
+  <si>
+    <t>oferta</t>
+  </si>
+  <si>
+    <t>TIPO_INMUEBLE</t>
+  </si>
+  <si>
+    <t>INMUEBLE</t>
+  </si>
+  <si>
+    <t>CITA</t>
+  </si>
+  <si>
+    <t>id_tipo_inmueble</t>
+  </si>
+  <si>
+    <t>tipo_inmueble</t>
+  </si>
+  <si>
+    <t>UBICACIÓN</t>
+  </si>
+  <si>
+    <t>id_ubicacion</t>
+  </si>
+  <si>
+    <t>CARACTERISTICAS</t>
   </si>
 </sst>
 </file>
@@ -141,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,142 +484,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA36E1-60B5-4A05-91EE-38161EAF76EF}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="R5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyecto Final/project.xlsx
+++ b/Proyecto Final/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Escritorio\CESDE\CESDE-BackendJava1\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF9540F-B853-40B8-A2C6-CCAB7A0505BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E78862-8555-47C8-A50B-84ADCE63645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{903B5C85-DF2D-491B-95C5-12E3E68F1ACC}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>USUARIO</t>
   </si>
   <si>
-    <t>USUARIO-INMUEBLES</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -133,13 +130,70 @@
   </si>
   <si>
     <t>CARACTERISTICAS</t>
+  </si>
+  <si>
+    <t>id_caracteristicas</t>
+  </si>
+  <si>
+    <t>numero_habitaciones</t>
+  </si>
+  <si>
+    <t>numero_baños</t>
+  </si>
+  <si>
+    <t>patio</t>
+  </si>
+  <si>
+    <t>nivel</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>gas_natural</t>
+  </si>
+  <si>
+    <t>zona_ropa</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>id_administrador</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>email_propietario</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>id_rol</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>id_contrato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +201,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,21 +554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA36E1-60B5-4A05-91EE-38161EAF76EF}">
-  <dimension ref="B2:T10"/>
+  <dimension ref="B2:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
@@ -506,149 +578,417 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
